--- a/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/EXPORT-PROC-Shapes.xlsx
+++ b/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/EXPORT-PROC-Shapes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="147">
   <si>
     <t>Shapes URI</t>
   </si>
@@ -361,15 +361,9 @@
     <t>http://data.europarl.europa.eu/resource/eli/dl/iEpRegl/.*$/.*$</t>
   </si>
   <si>
-    <t>http://data.europarl.europa.eu/resource/eli/dl/proc/.*$</t>
-  </si>
-  <si>
     <t>eli-dl:LegislativeActivity</t>
   </si>
   <si>
-    <t>http://data.europarl.europa.eu/resource/eli/dl/proc/.*$/event/procedure-creation_1</t>
-  </si>
-  <si>
     <t>rdfs:Literal</t>
   </si>
   <si>
@@ -398,6 +392,102 @@
   </si>
   <si>
     <t>eli-dl:legislative_process_title</t>
+  </si>
+  <si>
+    <t>eli-dl:latest_activity</t>
+  </si>
+  <si>
+    <t>elidl-ep:hasActivityParticipation</t>
+  </si>
+  <si>
+    <t>eli-dl:consists_of</t>
+  </si>
+  <si>
+    <t>Constraints on LegislativeActivities</t>
+  </si>
+  <si>
+    <t>elidl-ep:activityType</t>
+  </si>
+  <si>
+    <t>eli-dl:activity_date</t>
+  </si>
+  <si>
+    <t>elidl-ep:activityId</t>
+  </si>
+  <si>
+    <t>elidl-ep:activityContextPrecision</t>
+  </si>
+  <si>
+    <t>elidl-ep:activityNature</t>
+  </si>
+  <si>
+    <t>eli-dl:occured_at_stage</t>
+  </si>
+  <si>
+    <t>elidl-ep:activityStatus</t>
+  </si>
+  <si>
+    <t>elidl-ep:amendmentDeadlineDate</t>
+  </si>
+  <si>
+    <t>eli-dl:hasActivityParticipation</t>
+  </si>
+  <si>
+    <t>http://data.europarl.europa.eu/authority/activity-type/.*$</t>
+  </si>
+  <si>
+    <t>http://data.europarl.europa.eu/authority/activity-context-precision/.*$</t>
+  </si>
+  <si>
+    <t>http://data.europarl.europa.eu/authority/nature/.*$</t>
+  </si>
+  <si>
+    <t>http://data.europarl.europa.eu/authority/activity-stage/[0-9][0-9]-[0-9][0-9]</t>
+  </si>
+  <si>
+    <t>http://data.europarl.europa.eu/authority/activity-status/.*$</t>
+  </si>
+  <si>
+    <t>elidl-ep:ActivityParticipation</t>
+  </si>
+  <si>
+    <t>epsh:ActivityParticipation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>http://data.europarl.europa.eu/resource/eli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/dl/proc/[0-9][0-9][0-9][0-9]/[0-9a-zA-Z]*/[0-9a-zA-Z]*$"</t>
+    </r>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9][0-9][0-9][0-9]/[0-9][0-9][0-9][0-9]/[0-9a-zA-Z]*/event/[0-9a-zA-Z]*/main-dossier_[0-9]*/activity-participation_[0-9]*"</t>
+  </si>
+  <si>
+    <t>Constraints on ActivityParticipation</t>
   </si>
 </sst>
 </file>
@@ -945,7 +1035,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -957,7 +1047,7 @@
     <col min="5" max="6" width="23.6796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.1328125" customWidth="1"/>
     <col min="8" max="8" width="19.31640625" customWidth="1"/>
-    <col min="9" max="9" width="53.04296875" customWidth="1"/>
+    <col min="9" max="9" width="81" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.6796875" customWidth="1"/>
     <col min="11" max="11" width="24.54296875" customWidth="1"/>
   </cols>
@@ -967,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
@@ -988,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>79</v>
@@ -1014,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>80</v>
@@ -1027,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>81</v>
@@ -1040,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1178,8 +1268,8 @@
       <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>113</v>
+      <c r="I15" t="s">
+        <v>144</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>31</v>
@@ -1190,13 +1280,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1205,9 +1295,6 @@
       <c r="H16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>115</v>
-      </c>
       <c r="J16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1215,14 +1302,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="13"/>
+      <c r="H17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="C18" s="14"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1230,33 +1333,33 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="13"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="13"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="3:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G25" s="1"/>
     </row>
   </sheetData>
@@ -1269,9 +1372,9 @@
     <hyperlink ref="C4" r:id="rId6"/>
     <hyperlink ref="C5" r:id="rId7"/>
     <hyperlink ref="C6" r:id="rId8"/>
-    <hyperlink ref="I15" r:id="rId9"/>
-    <hyperlink ref="I16" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11" display="http://data.europa.eu/eli/eli-draft-legislation-ontology"/>
+    <hyperlink ref="C7" r:id="rId9" display="http://data.europa.eu/eli/eli-draft-legislation-ontology"/>
+    <hyperlink ref="I15" r:id="rId10" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I17" r:id="rId11" display="http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9][0-9][0-9][0-9]/[0-9a-zA-Z]*/[0-9a-zA-Z]*/.*$"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -1284,11 +1387,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6796875" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -1318,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
@@ -1340,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>79</v>
@@ -1366,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>80</v>
@@ -1379,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>81</v>
@@ -1392,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2"/>
       <c r="Q7" s="1"/>
@@ -1571,7 +1674,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:A27" si="0">CONCATENATE("epsh:P",ROW(A14))</f>
+        <f t="shared" ref="A14:A29" si="0">CONCATENATE("epsh:P",ROW(A14))</f>
         <v>epsh:P14</v>
       </c>
       <c r="B14" t="s">
@@ -1919,7 +2022,7 @@
         <v>epsh:P26</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
         <v>77</v>
@@ -1928,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1943,8 +2046,324 @@
         <v>31</v>
       </c>
       <c r="T26" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>epsh:P27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>epsh:P28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>epsh:P29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
         <v>117</v>
       </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" ref="N29" si="1">LEFT(M29,1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="T33" s="19"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:A44" si="2">CONCATENATE("epsh:P",ROW(A34))</f>
+        <v>epsh:P34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A35" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>74</v>
+      </c>
+      <c r="M35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A36" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A40" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A41" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A42" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A43" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="T46" s="19"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A47" t="str">
+        <f t="shared" ref="A47" si="3">CONCATENATE("epsh:P",ROW(A47))</f>
+        <v>epsh:P47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C52"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1962,9 +2381,14 @@
     <hyperlink ref="R24" r:id="rId12"/>
     <hyperlink ref="R25" r:id="rId13"/>
     <hyperlink ref="C7" r:id="rId14" display="http://data.europa.eu/eli/eli-draft-legislation-ontology"/>
+    <hyperlink ref="R34" r:id="rId15"/>
+    <hyperlink ref="R38" r:id="rId16"/>
+    <hyperlink ref="R39" r:id="rId17"/>
+    <hyperlink ref="R40" r:id="rId18"/>
+    <hyperlink ref="R41" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/EXPORT-PROC-Shapes.xlsx
+++ b/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/EXPORT-PROC-Shapes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
   <si>
     <t>Shapes URI</t>
   </si>
@@ -310,12 +310,6 @@
     <t>eli-dl:foreseen_type_document</t>
   </si>
   <si>
-    <t>http://data.europarl.europa.eu/authority/legislative-act-type/.*$</t>
-  </si>
-  <si>
-    <t>http://data.europarl.europa.eu/authority/legislative-process-type/.*$</t>
-  </si>
-  <si>
     <t>eli-dl:current_stage</t>
   </si>
   <si>
@@ -328,39 +322,24 @@
     <t>activity-sub-stage</t>
   </si>
   <si>
-    <t>http://data.europarl.europa.eu/authority/activity-stage/.*$</t>
-  </si>
-  <si>
     <t>elidl-ep:legislativeProcessNature</t>
   </si>
   <si>
-    <t>legislative-procedure-nature</t>
-  </si>
-  <si>
     <t>legislative-process-type</t>
   </si>
   <si>
     <t>legal-resource-type</t>
   </si>
   <si>
-    <t>http://data.europarl.europa.eu/authority/legislative-process-nature/.*$</t>
-  </si>
-  <si>
     <t>eli-dl:legislative_process_status</t>
   </si>
   <si>
     <t>legislative-process-status</t>
   </si>
   <si>
-    <t>http://data.europarl.europa.eu/authority/legislative-process-status/.*$</t>
-  </si>
-  <si>
     <t>eli-dl:had_legal_basis</t>
   </si>
   <si>
-    <t>http://data.europarl.europa.eu/resource/eli/dl/iEpRegl/.*$/.*$</t>
-  </si>
-  <si>
     <t>eli-dl:LegislativeActivity</t>
   </si>
   <si>
@@ -373,9 +352,6 @@
     <t>http://data.europarl.europa.eu/shapes/</t>
   </si>
   <si>
-    <t>epsh:LegislativeActivity</t>
-  </si>
-  <si>
     <t>http://data.europa.eu/eli/eli-draft-legislation-ontology#</t>
   </si>
   <si>
@@ -397,15 +373,9 @@
     <t>eli-dl:latest_activity</t>
   </si>
   <si>
-    <t>elidl-ep:hasActivityParticipation</t>
-  </si>
-  <si>
     <t>eli-dl:consists_of</t>
   </si>
   <si>
-    <t>Constraints on LegislativeActivities</t>
-  </si>
-  <si>
     <t>elidl-ep:activityType</t>
   </si>
   <si>
@@ -448,19 +418,79 @@
     <t>http://data.europarl.europa.eu/authority/activity-status/.*$</t>
   </si>
   <si>
-    <t>elidl-ep:ActivityParticipation</t>
-  </si>
-  <si>
     <t>epsh:ActivityParticipation</t>
   </si>
   <si>
+    <t>Constraints on ActivityParticipation</t>
+  </si>
+  <si>
+    <t>epsh:Reading</t>
+  </si>
+  <si>
+    <t>Constraints on Reading</t>
+  </si>
+  <si>
+    <t>Constraints on Main</t>
+  </si>
+  <si>
+    <t>elidl-ep:activityParticipationHasAgent</t>
+  </si>
+  <si>
+    <t>elidl-ep:activityParticipationRole</t>
+  </si>
+  <si>
+    <t>elidl-ep:activityParticipationInNameOf</t>
+  </si>
+  <si>
+    <t>eli-dl:activity_label</t>
+  </si>
+  <si>
+    <t>eli-dl:involved_work</t>
+  </si>
+  <si>
+    <t>elidl-ep:activityHasVoteResult</t>
+  </si>
+  <si>
+    <t>eli-dl:created_a_realization_of</t>
+  </si>
+  <si>
+    <t>epsh:MainDossier</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/authority/legislative-process-nature/.*$"</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/authority/legislative-process-type/.*$"</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/authority/legislative-act-type/.*$"</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/authority/activity-stage/.*$"</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/authority/legislative-process-status/.*$"</t>
+  </si>
+  <si>
+    <t>epsh:Procedure_creation</t>
+  </si>
+  <si>
+    <t>Constraints on Procedure_creation</t>
+  </si>
+  <si>
+    <t>epsh:Tabling_draft_report</t>
+  </si>
+  <si>
+    <t>Constraints on Tabling_draft_report</t>
+  </si>
+  <si>
+    <t>elidl-ep:hasOtherRap</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/[a-zA-Z]+/[a-zA-Z]+-[0-9]+-[0-9][0-9][0-9][0-9]+-[0-9][0-9]+-[0-9][0-9]+/.*$"</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t>"^</t>
     </r>
     <r>
@@ -480,14 +510,68 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>/dl/proc/[0-9][0-9][0-9][0-9]/[0-9a-zA-Z]*/[0-9a-zA-Z]*$"</t>
+      <t>/dl/proc/[0-9][0-9][0-9][0-9]+/[0-9a-zA-Z]*+/[0-9a-zA-Z]*$"</t>
     </r>
   </si>
   <si>
-    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9][0-9][0-9][0-9]/[0-9][0-9][0-9][0-9]/[0-9a-zA-Z]*/event/[0-9a-zA-Z]*/main-dossier_[0-9]*/activity-participation_[0-9]*"</t>
-  </si>
-  <si>
-    <t>Constraints on ActivityParticipation</t>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9]{4}+/[0-9a-zA-Z]+/event/.*$"</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9]{4}+/[0-9a-zA-Z]+/event/reading_.+/.*$"</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9]{4}+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$</t>
+  </si>
+  <si>
+    <t>Constraints on app-rapporteur</t>
+  </si>
+  <si>
+    <t>epsh:AppRapporteur</t>
+  </si>
+  <si>
+    <t>epsh:TablingAmendment</t>
+  </si>
+  <si>
+    <t>epsh:CommitteeVote</t>
+  </si>
+  <si>
+    <t>Constraints on TablingAmendment</t>
+  </si>
+  <si>
+    <t>Constraints on CommitteeVote</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9]{4}+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*/result$</t>
+  </si>
+  <si>
+    <t>elidl-ep:voteDate</t>
+  </si>
+  <si>
+    <t>elidl-ep:voteResult</t>
+  </si>
+  <si>
+    <t>elidl-ep:voteAbstention</t>
+  </si>
+  <si>
+    <t>elidl-ep:voteFavour</t>
+  </si>
+  <si>
+    <t>elidl-ep:voteAgainst</t>
+  </si>
+  <si>
+    <t>epsh:Vote</t>
+  </si>
+  <si>
+    <t>xsd:integer</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/authority/vote-result/.*$"</t>
+  </si>
+  <si>
+    <t>Constraints on Vote</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/.*$"</t>
   </si>
 </sst>
 </file>
@@ -604,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -635,9 +719,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,6 +741,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1034,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -1047,7 +1132,7 @@
     <col min="5" max="6" width="23.6796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.1328125" customWidth="1"/>
     <col min="8" max="8" width="19.31640625" customWidth="1"/>
-    <col min="9" max="9" width="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="111.953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.6796875" customWidth="1"/>
     <col min="11" max="11" width="24.54296875" customWidth="1"/>
   </cols>
@@ -1056,8 +1141,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>116</v>
+      <c r="B1" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
@@ -1077,10 +1162,10 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="3"/>
@@ -1090,10 +1175,10 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="3"/>
@@ -1103,10 +1188,10 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="3"/>
@@ -1116,10 +1201,10 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="3"/>
@@ -1129,11 +1214,11 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>118</v>
+      <c r="B7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1269,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>31</v>
@@ -1280,14 +1365,12 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
+      <c r="C16"/>
       <c r="F16" s="1">
         <v>2</v>
       </c>
@@ -1295,6 +1378,9 @@
       <c r="H16" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1304,14 +1390,12 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>142</v>
-      </c>
+      <c r="C17"/>
       <c r="F17" s="1">
         <v>3</v>
       </c>
@@ -1320,44 +1404,184 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C18" s="14"/>
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18"/>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19"/>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="H21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9</v>
+      </c>
       <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
       <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1">
+        <v>11</v>
+      </c>
       <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G25" s="1"/>
@@ -1374,10 +1598,17 @@
     <hyperlink ref="C6" r:id="rId8"/>
     <hyperlink ref="C7" r:id="rId9" display="http://data.europa.eu/eli/eli-draft-legislation-ontology"/>
     <hyperlink ref="I15" r:id="rId10" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="I17" r:id="rId11" display="http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9][0-9][0-9][0-9]/[0-9a-zA-Z]*/[0-9a-zA-Z]*/.*$"/>
+    <hyperlink ref="I18" r:id="rId11" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I17" r:id="rId12" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I19" r:id="rId13" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I20" r:id="rId14" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I21" r:id="rId15" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I22" r:id="rId16" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I23" r:id="rId17" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I24" r:id="rId18" display="http://data.europarl.europa.eu/resource/eli"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -1387,11 +1618,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6796875" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -1420,8 +1651,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>116</v>
+      <c r="B1" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
@@ -1443,9 +1674,9 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="2"/>
@@ -1458,7 +1689,7 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2"/>
@@ -1469,9 +1700,9 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="2"/>
@@ -1482,9 +1713,9 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="2"/>
@@ -1495,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="Q7" s="1"/>
@@ -1602,28 +1833,28 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="25" x14ac:dyDescent="0.5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -1635,56 +1866,53 @@
       <c r="K12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="15" t="s">
         <v>70</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:21" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="T13" s="19"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:A29" si="0">CONCATENATE("epsh:P",ROW(A14))</f>
+        <f t="shared" ref="A14:A28" si="0">CONCATENATE("epsh:P",ROW(A14))</f>
         <v>epsh:P14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>88</v>
@@ -1702,14 +1930,11 @@
         <f t="shared" si="0"/>
         <v>epsh:P15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="24" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>87</v>
@@ -1732,14 +1957,11 @@
         <f t="shared" si="0"/>
         <v>epsh:P16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="24" t="s">
         <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>86</v>
@@ -1763,14 +1985,11 @@
         <f t="shared" si="0"/>
         <v>epsh:P17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="24" t="s">
         <v>89</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>91</v>
@@ -1790,14 +2009,11 @@
         <f t="shared" si="0"/>
         <v>epsh:P18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>77</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>92</v>
@@ -1820,17 +2036,14 @@
         <f t="shared" si="0"/>
         <v>epsh:P19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="24" t="s">
         <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1841,8 +2054,8 @@
       <c r="L19" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="21" t="s">
-        <v>97</v>
+      <c r="R19" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.5">
@@ -1850,17 +2063,17 @@
         <f t="shared" si="0"/>
         <v>epsh:P20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="1">
-        <v>7</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1868,8 +2081,8 @@
       <c r="L20" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="21" t="s">
-        <v>96</v>
+      <c r="R20" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.5">
@@ -1877,17 +2090,14 @@
         <f t="shared" si="0"/>
         <v>epsh:P21</v>
       </c>
-      <c r="B21" t="s">
-        <v>98</v>
+      <c r="B21" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="1">
-        <v>8</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1898,8 +2108,8 @@
       <c r="L21" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="21" t="s">
-        <v>102</v>
+      <c r="R21" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.5">
@@ -1907,17 +2117,14 @@
         <f t="shared" si="0"/>
         <v>epsh:P22</v>
       </c>
-      <c r="B22" t="s">
-        <v>99</v>
+      <c r="B22" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="1">
-        <v>9</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -1928,8 +2135,8 @@
       <c r="L22" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="21" t="s">
-        <v>102</v>
+      <c r="R22" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.5">
@@ -1937,29 +2144,18 @@
         <f t="shared" si="0"/>
         <v>epsh:P23</v>
       </c>
-      <c r="B23" t="s">
-        <v>103</v>
+      <c r="B23" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="L23" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="21" t="s">
-        <v>107</v>
+      <c r="R23" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.5">
@@ -1967,17 +2163,14 @@
         <f t="shared" si="0"/>
         <v>epsh:P24</v>
       </c>
-      <c r="B24" t="s">
-        <v>108</v>
+      <c r="B24" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="1">
-        <v>11</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1988,32 +2181,26 @@
       <c r="L24" t="s">
         <v>30</v>
       </c>
-      <c r="R24" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="R24" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="25" x14ac:dyDescent="0.5">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>epsh:P25</v>
       </c>
-      <c r="B25" t="s">
-        <v>111</v>
+      <c r="B25" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="1">
-        <v>12</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
       <c r="L25" t="s">
         <v>30</v>
       </c>
-      <c r="R25" s="21" t="s">
-        <v>112</v>
+      <c r="R25" s="25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="37.5" x14ac:dyDescent="0.5">
@@ -2021,17 +2208,14 @@
         <f t="shared" si="0"/>
         <v>epsh:P26</v>
       </c>
-      <c r="B26" t="s">
-        <v>123</v>
+      <c r="B26" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1">
-        <v>13</v>
-      </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -2046,7 +2230,7 @@
         <v>31</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.5">
@@ -2054,14 +2238,14 @@
         <f t="shared" si="0"/>
         <v>epsh:P27</v>
       </c>
-      <c r="B27" t="s">
-        <v>124</v>
+      <c r="B27" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="1">
-        <v>14</v>
+      <c r="G27" s="1">
+        <v>0</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2075,69 +2259,78 @@
         <f t="shared" si="0"/>
         <v>epsh:P28</v>
       </c>
-      <c r="B28" t="s">
-        <v>125</v>
+      <c r="B28" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>epsh:P29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" ref="N29" si="1">LEFT(M29,1)</f>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" ref="N28" si="1">LEFT(M28,1)</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:20" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="18" t="s">
+      <c r="R28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="T32" s="18"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:A58" si="2">CONCATENATE("epsh:P",ROW(A33))</f>
+        <v>epsh:P33</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="T33" s="19"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A34" t="str">
-        <f t="shared" ref="A34:A44" si="2">CONCATENATE("epsh:P",ROW(A34))</f>
+        <f t="shared" si="2"/>
         <v>epsh:P34</v>
       </c>
-      <c r="B34" t="s">
-        <v>128</v>
+      <c r="B34" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
       </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
       <c r="L34" t="s">
-        <v>30</v>
-      </c>
-      <c r="R34" s="21" t="s">
-        <v>137</v>
+        <v>74</v>
+      </c>
+      <c r="M34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.5">
@@ -2145,11 +2338,11 @@
         <f t="shared" si="2"/>
         <v>epsh:P35</v>
       </c>
-      <c r="B35" t="s">
-        <v>129</v>
+      <c r="B35" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2161,7 +2354,7 @@
         <v>74</v>
       </c>
       <c r="M35" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.5">
@@ -2169,23 +2362,23 @@
         <f t="shared" si="2"/>
         <v>epsh:P36</v>
       </c>
-      <c r="B36" t="s">
-        <v>130</v>
+      <c r="B36" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36">
-        <v>1</v>
+      <c r="J36" t="s">
+        <v>144</v>
       </c>
       <c r="L36" t="s">
-        <v>74</v>
-      </c>
-      <c r="M36" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="R36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.5">
@@ -2193,69 +2386,33 @@
         <f t="shared" si="2"/>
         <v>epsh:P37</v>
       </c>
-      <c r="B37" t="s">
-        <v>126</v>
+      <c r="B37" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="L37" t="s">
         <v>30</v>
       </c>
+      <c r="R37" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A38" t="str">
-        <f t="shared" si="2"/>
-        <v>epsh:P38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R38" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A39" t="str">
-        <f t="shared" si="2"/>
-        <v>epsh:P39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R39" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="T39" s="18"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A40" t="str">
@@ -2263,22 +2420,19 @@
         <v>epsh:P40</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
       <c r="L40" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="21" t="s">
-        <v>140</v>
+      <c r="R40" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.5">
@@ -2287,83 +2441,979 @@
         <v>epsh:P41</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>30</v>
-      </c>
-      <c r="R41" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A42" t="str">
-        <f t="shared" si="2"/>
-        <v>epsh:P42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
         <v>74</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M41" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A43" t="str">
-        <f t="shared" si="2"/>
-        <v>epsh:P43</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="T46" s="19"/>
+      <c r="T44" s="18"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A45" t="str">
+        <f>CONCATENATE("epsh:P",ROW(A45))</f>
+        <v>epsh:P45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A46" t="str">
+        <f>CONCATENATE("epsh:P",ROW(A46))</f>
+        <v>epsh:P46</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A47" t="str">
-        <f t="shared" ref="A47" si="3">CONCATENATE("epsh:P",ROW(A47))</f>
+        <f t="shared" si="2"/>
         <v>epsh:P47</v>
       </c>
+      <c r="B47" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" t="s">
+        <v>93</v>
+      </c>
+      <c r="R47" s="20"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A48" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P48</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A49" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P49</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A50" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P50</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A51" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P51</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A52" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P52</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A53" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P53</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A54" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L54" t="s">
+        <v>30</v>
+      </c>
+      <c r="R54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A55" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>161</v>
+      </c>
+      <c r="L55" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A56" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>162</v>
+      </c>
+      <c r="L56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A57" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>163</v>
+      </c>
+      <c r="L57" t="s">
+        <v>30</v>
+      </c>
+      <c r="R57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A58" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58" t="s">
+        <v>30</v>
+      </c>
+      <c r="R58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="T60" s="18"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A61" t="str">
+        <f t="shared" ref="A61:A65" si="3">CONCATENATE("epsh:P",ROW(A61))</f>
+        <v>epsh:P61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A62" t="str">
+        <f t="shared" si="3"/>
+        <v>epsh:P62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>74</v>
+      </c>
+      <c r="M62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A63" t="str">
+        <f t="shared" si="3"/>
+        <v>epsh:P63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>74</v>
+      </c>
+      <c r="M63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A64" t="str">
+        <f t="shared" si="3"/>
+        <v>epsh:P64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R64" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A65" t="str">
+        <f t="shared" si="3"/>
+        <v>epsh:P65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>74</v>
+      </c>
+      <c r="M65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="T68" s="18"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A69" t="str">
+        <f t="shared" ref="A69:A73" si="4">CONCATENATE("epsh:P",ROW(A69))</f>
+        <v>epsh:P69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A70" t="str">
+        <f t="shared" si="4"/>
+        <v>epsh:P70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+      <c r="L70" t="s">
+        <v>30</v>
+      </c>
+      <c r="R70" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A71" t="str">
+        <f t="shared" si="4"/>
+        <v>epsh:P71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>74</v>
+      </c>
+      <c r="M71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A72" t="str">
+        <f t="shared" si="4"/>
+        <v>epsh:P72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="L72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A73" t="str">
+        <f t="shared" si="4"/>
+        <v>epsh:P73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="L73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="T76" s="18"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A77" t="str">
+        <f t="shared" ref="A77:A80" si="5">CONCATENATE("epsh:P",ROW(A77))</f>
+        <v>epsh:P77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>74</v>
+      </c>
+      <c r="M77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A78" t="str">
+        <f t="shared" si="5"/>
+        <v>epsh:P78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>30</v>
+      </c>
+      <c r="R78" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A79" t="str">
+        <f t="shared" si="5"/>
+        <v>epsh:P79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A80" t="str">
+        <f t="shared" si="5"/>
+        <v>epsh:P80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="T82" s="18"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A83" t="str">
+        <f t="shared" ref="A83:A94" si="6">CONCATENATE("epsh:P",ROW(A83))</f>
+        <v>epsh:P83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>74</v>
+      </c>
+      <c r="M83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A84" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>30</v>
+      </c>
+      <c r="R84" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A85" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>74</v>
+      </c>
+      <c r="M85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A86" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>172</v>
+      </c>
+      <c r="L86" t="s">
+        <v>30</v>
+      </c>
+      <c r="R86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A87" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P87</v>
+      </c>
+      <c r="B87" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C52"/>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>30</v>
+      </c>
+      <c r="R87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A89" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="T89" s="18"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A90" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" t="s">
+        <v>172</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>74</v>
+      </c>
+      <c r="M90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A91" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" t="s">
+        <v>172</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>30</v>
+      </c>
+      <c r="R91" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A92" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>74</v>
+      </c>
+      <c r="M92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A93" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" t="s">
+        <v>172</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>74</v>
+      </c>
+      <c r="M93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A94" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>172</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>74</v>
+      </c>
+      <c r="M94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="T96" s="18"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A97" t="str">
+        <f t="shared" ref="A97:A99" si="7">CONCATENATE("epsh:P",ROW(A97))</f>
+        <v>epsh:P97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A98" t="str">
+        <f t="shared" si="7"/>
+        <v>epsh:P98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A99" t="str">
+        <f t="shared" si="7"/>
+        <v>epsh:P99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2373,22 +3423,38 @@
     <hyperlink ref="C4" r:id="rId4"/>
     <hyperlink ref="C5" r:id="rId5"/>
     <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="R19" r:id="rId7"/>
-    <hyperlink ref="R20" r:id="rId8"/>
-    <hyperlink ref="R21" r:id="rId9"/>
-    <hyperlink ref="R22" r:id="rId10"/>
-    <hyperlink ref="R23" r:id="rId11"/>
-    <hyperlink ref="R24" r:id="rId12"/>
-    <hyperlink ref="R25" r:id="rId13"/>
-    <hyperlink ref="C7" r:id="rId14" display="http://data.europa.eu/eli/eli-draft-legislation-ontology"/>
-    <hyperlink ref="R34" r:id="rId15"/>
-    <hyperlink ref="R38" r:id="rId16"/>
-    <hyperlink ref="R39" r:id="rId17"/>
+    <hyperlink ref="R19" r:id="rId7" display="http://data.europarl.europa.eu/authority/legislative-process-type/.*$"/>
+    <hyperlink ref="R20" r:id="rId8" display="http://data.europarl.europa.eu/authority/legislative-act-type/.*$"/>
+    <hyperlink ref="R21" r:id="rId9" display="http://data.europarl.europa.eu/authority/activity-stage/.*$"/>
+    <hyperlink ref="R22" r:id="rId10" display="http://data.europarl.europa.eu/authority/activity-stage/.*$"/>
+    <hyperlink ref="R24" r:id="rId11" display="http://data.europarl.europa.eu/authority/legislative-process-status/.*$"/>
+    <hyperlink ref="C7" r:id="rId12" display="http://data.europa.eu/eli/eli-draft-legislation-ontology"/>
+    <hyperlink ref="R33" r:id="rId13"/>
+    <hyperlink ref="R49" r:id="rId14"/>
+    <hyperlink ref="R50" r:id="rId15"/>
+    <hyperlink ref="R51" r:id="rId16"/>
+    <hyperlink ref="R52" r:id="rId17"/>
     <hyperlink ref="R40" r:id="rId18"/>
-    <hyperlink ref="R41" r:id="rId19"/>
+    <hyperlink ref="R48" r:id="rId19"/>
+    <hyperlink ref="R70" r:id="rId20"/>
+    <hyperlink ref="R36" r:id="rId21" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R37" r:id="rId22" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R54" r:id="rId23" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R58" r:id="rId24" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R55" r:id="rId25" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R64" r:id="rId26"/>
+    <hyperlink ref="R45" r:id="rId27" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R61" r:id="rId28" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R56:R57" r:id="rId29" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R78" r:id="rId30"/>
+    <hyperlink ref="R84" r:id="rId31"/>
+    <hyperlink ref="R86" r:id="rId32" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R87" r:id="rId33" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R91" r:id="rId34" display="http://data.europarl.europa.eu/authority/activity-stage/.*$"/>
+    <hyperlink ref="R25" r:id="rId35" display="http://data.europarl.europa.eu/resource/eli/dl/[a-zA-Z]/[A-Z]?[0-9]?[0-9][0-9][0-9][0-9]?[0-9][0-9]?[0-9][0-9]/.*$"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/EXPORT-PROC-Shapes.xlsx
+++ b/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/EXPORT-PROC-Shapes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="182">
   <si>
     <t>Shapes URI</t>
   </si>
@@ -572,6 +572,21 @@
   </si>
   <si>
     <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/.*$"</t>
+  </si>
+  <si>
+    <t>epsh:PlenaryDossier</t>
+  </si>
+  <si>
+    <t>epsh:ConsolidationDossier</t>
+  </si>
+  <si>
+    <t>epsh:LegalBasisEP</t>
+  </si>
+  <si>
+    <t>epsh:LegalBasisTFEU</t>
+  </si>
+  <si>
+    <t>"^http://data.europa.eu/resource/eli/treaty/[a-zA-Z]+_[0-9]+/[a-zA-Z]+_[0-9]+/oj$"</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -1584,7 +1599,43 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
       <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1618,11 +1669,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U99"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6796875" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -1905,7 +1956,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:A28" si="0">CONCATENATE("epsh:P",ROW(A14))</f>
+        <f t="shared" ref="A14:A29" si="0">CONCATENATE("epsh:P",ROW(A14))</f>
         <v>epsh:P14</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -2185,7 +2236,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="25" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>epsh:P25</v>
@@ -2199,59 +2250,64 @@
       <c r="L25" t="s">
         <v>30</v>
       </c>
-      <c r="R25" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="37.5" x14ac:dyDescent="0.5">
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="R25" s="25"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>epsh:P26</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="E26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
       <c r="L26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" t="s">
-        <v>76</v>
-      </c>
-      <c r="S26" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>179</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="25"/>
+    </row>
+    <row r="27" spans="1:20" ht="37.5" x14ac:dyDescent="0.5">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>epsh:P27</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
       </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
       <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>30</v>
+        <v>74</v>
+      </c>
+      <c r="M27" t="s">
+        <v>76</v>
+      </c>
+      <c r="S27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.5">
@@ -2260,62 +2316,62 @@
         <v>epsh:P28</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>epsh:P29</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
         <v>134</v>
       </c>
-      <c r="L28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="1" t="str">
-        <f t="shared" ref="N28" si="1">LEFT(M28,1)</f>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" ref="N29" si="1">LEFT(M29,1)</f>
         <v/>
       </c>
-      <c r="R28" t="s">
+      <c r="R29" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="17" t="s">
+    <row r="33" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="T32" s="18"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A33" t="str">
-        <f t="shared" ref="A33:A58" si="2">CONCATENATE("epsh:P",ROW(A33))</f>
-        <v>epsh:P33</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>30</v>
-      </c>
-      <c r="R33" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="T33" s="18"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A34:A59" si="2">CONCATENATE("epsh:P",ROW(A34))</f>
         <v>epsh:P34</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>134</v>
@@ -2323,14 +2379,11 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
       <c r="L34" t="s">
-        <v>74</v>
-      </c>
-      <c r="M34" t="s">
-        <v>93</v>
+        <v>30</v>
+      </c>
+      <c r="R34" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.5">
@@ -2339,7 +2392,7 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>134</v>
@@ -2354,7 +2407,7 @@
         <v>74</v>
       </c>
       <c r="M35" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.5">
@@ -2363,7 +2416,7 @@
         <v>epsh:P36</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>134</v>
@@ -2371,14 +2424,14 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
-        <v>144</v>
+      <c r="H36">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>30</v>
-      </c>
-      <c r="R36" t="s">
-        <v>158</v>
+        <v>74</v>
+      </c>
+      <c r="M36" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.5">
@@ -2396,44 +2449,47 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
+        <v>144</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P38</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
         <v>150</v>
       </c>
-      <c r="L37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B38" s="24"/>
-    </row>
-    <row r="39" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="B39" s="24"/>
+    </row>
+    <row r="40" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="T39" s="18"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A40" t="str">
-        <f t="shared" si="2"/>
-        <v>epsh:P40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>30</v>
-      </c>
-      <c r="R40" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="T40" s="18"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A41" t="str">
@@ -2441,7 +2497,7 @@
         <v>epsh:P41</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
         <v>150</v>
@@ -2449,50 +2505,50 @@
       <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
       <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A42" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
         <v>74</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="17" t="s">
+    <row r="45" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="T44" s="18"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A45" t="str">
-        <f>CONCATENATE("epsh:P",ROW(A45))</f>
-        <v>epsh:P45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>30</v>
-      </c>
-      <c r="R45" t="s">
-        <v>158</v>
-      </c>
+      <c r="T45" s="18"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A46" t="str">
         <f>CONCATENATE("epsh:P",ROW(A46))</f>
         <v>epsh:P46</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>120</v>
+      <c r="B46" t="s">
+        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>144</v>
@@ -2500,23 +2556,20 @@
       <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
       <c r="L46" t="s">
-        <v>74</v>
-      </c>
-      <c r="M46" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="R46" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A47" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("epsh:P",ROW(A47))</f>
         <v>epsh:P47</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
         <v>144</v>
@@ -2524,13 +2577,15 @@
       <c r="G47" s="1">
         <v>1</v>
       </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
       <c r="L47" t="s">
         <v>74</v>
       </c>
       <c r="M47" t="s">
-        <v>93</v>
-      </c>
-      <c r="R47" s="20"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A48" t="str">
@@ -2538,7 +2593,7 @@
         <v>epsh:P48</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
         <v>144</v>
@@ -2547,11 +2602,12 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" s="20" t="s">
-        <v>127</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M48" t="s">
+        <v>93</v>
+      </c>
+      <c r="R48" s="20"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A49" t="str">
@@ -2559,7 +2615,7 @@
         <v>epsh:P49</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
         <v>144</v>
@@ -2567,14 +2623,11 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
       <c r="L49" t="s">
         <v>30</v>
       </c>
       <c r="R49" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.5">
@@ -2583,7 +2636,7 @@
         <v>epsh:P50</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
         <v>144</v>
@@ -2598,7 +2651,7 @@
         <v>30</v>
       </c>
       <c r="R50" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.5">
@@ -2607,7 +2660,7 @@
         <v>epsh:P51</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
         <v>144</v>
@@ -2622,7 +2675,7 @@
         <v>30</v>
       </c>
       <c r="R51" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.5">
@@ -2631,7 +2684,7 @@
         <v>epsh:P52</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
         <v>144</v>
@@ -2639,11 +2692,14 @@
       <c r="G52" s="1">
         <v>1</v>
       </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
       <c r="L52" t="s">
         <v>30</v>
       </c>
       <c r="R52" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.5">
@@ -2652,19 +2708,19 @@
         <v>epsh:P53</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
         <v>144</v>
       </c>
-      <c r="H53">
+      <c r="G53" s="1">
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>74</v>
-      </c>
-      <c r="M53" t="s">
-        <v>93</v>
+        <v>30</v>
+      </c>
+      <c r="R53" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.5">
@@ -2672,23 +2728,20 @@
         <f t="shared" si="2"/>
         <v>epsh:P54</v>
       </c>
-      <c r="B54" t="s">
-        <v>117</v>
+      <c r="B54" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="C54" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>152</v>
+      <c r="H54">
+        <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>30</v>
-      </c>
-      <c r="R54" t="s">
-        <v>159</v>
+        <v>74</v>
+      </c>
+      <c r="M54" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.5">
@@ -2706,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L55" t="s">
         <v>30</v>
@@ -2730,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s">
         <v>30</v>
@@ -2754,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L57" t="s">
         <v>30</v>
@@ -2769,7 +2822,7 @@
         <v>epsh:P58</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
         <v>144</v>
@@ -2778,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s">
         <v>30</v>
@@ -2788,42 +2841,45 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="17" t="s">
+      <c r="A59" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59" t="s">
+        <v>30</v>
+      </c>
+      <c r="R59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="T60" s="18"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A61" t="str">
-        <f t="shared" ref="A61:A65" si="3">CONCATENATE("epsh:P",ROW(A61))</f>
-        <v>epsh:P61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s">
-        <v>161</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R61" t="s">
-        <v>158</v>
-      </c>
+      <c r="T61" s="18"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A62:A66" si="3">CONCATENATE("epsh:P",ROW(A62))</f>
         <v>epsh:P62</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
         <v>161</v>
@@ -2832,10 +2888,10 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>74</v>
-      </c>
-      <c r="M62" t="s">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="R62" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.5">
@@ -2844,7 +2900,7 @@
         <v>epsh:P63</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
         <v>161</v>
@@ -2865,7 +2921,7 @@
         <v>epsh:P64</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
         <v>161</v>
@@ -2874,10 +2930,10 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>30</v>
-      </c>
-      <c r="R64" s="20" t="s">
-        <v>127</v>
+        <v>74</v>
+      </c>
+      <c r="M64" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.5">
@@ -2886,7 +2942,7 @@
         <v>epsh:P65</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
         <v>161</v>
@@ -2895,64 +2951,67 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
+        <v>30</v>
+      </c>
+      <c r="R65" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A66" t="str">
+        <f t="shared" si="3"/>
+        <v>epsh:P66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
         <v>74</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C66"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.5">
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="T68" s="18"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A69" t="str">
-        <f t="shared" ref="A69:A73" si="4">CONCATENATE("epsh:P",ROW(A69))</f>
-        <v>epsh:P69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" t="s">
-        <v>152</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="L69" t="s">
-        <v>74</v>
-      </c>
-      <c r="M69" t="s">
-        <v>75</v>
-      </c>
+      <c r="T69" s="18"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A70:A74" si="4">CONCATENATE("epsh:P",ROW(A70))</f>
         <v>epsh:P70</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
         <v>152</v>
       </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
       <c r="L70" t="s">
-        <v>30</v>
-      </c>
-      <c r="R70" s="20" t="s">
-        <v>127</v>
+        <v>74</v>
+      </c>
+      <c r="M70" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.5">
@@ -2961,22 +3020,16 @@
         <v>epsh:P71</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
         <v>152</v>
       </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
       <c r="L71" t="s">
-        <v>74</v>
-      </c>
-      <c r="M71" t="s">
-        <v>93</v>
+        <v>30</v>
+      </c>
+      <c r="R71" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.5">
@@ -2985,13 +3038,22 @@
         <v>epsh:P72</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
         <v>152</v>
       </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
       <c r="L72" t="s">
-        <v>30</v>
+        <v>74</v>
+      </c>
+      <c r="M72" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.5">
@@ -3000,7 +3062,7 @@
         <v>epsh:P73</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
         <v>152</v>
@@ -3010,45 +3072,39 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C74"/>
+      <c r="A74" t="str">
+        <f t="shared" si="4"/>
+        <v>epsh:P74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="L74" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.5">
       <c r="C75"/>
     </row>
-    <row r="76" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="17" t="s">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="T76" s="18"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A77" t="str">
-        <f t="shared" ref="A77:A80" si="5">CONCATENATE("epsh:P",ROW(A77))</f>
-        <v>epsh:P77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1</v>
-      </c>
-      <c r="L77" t="s">
-        <v>74</v>
-      </c>
-      <c r="M77" t="s">
-        <v>75</v>
-      </c>
+      <c r="T77" s="18"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A78:A81" si="5">CONCATENATE("epsh:P",ROW(A78))</f>
         <v>epsh:P78</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
         <v>162</v>
@@ -3057,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>30</v>
-      </c>
-      <c r="R78" s="20" t="s">
-        <v>127</v>
+        <v>74</v>
+      </c>
+      <c r="M78" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.5">
@@ -3069,7 +3125,7 @@
         <v>epsh:P79</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
         <v>162</v>
@@ -3078,10 +3134,10 @@
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>74</v>
-      </c>
-      <c r="M79" t="s">
-        <v>93</v>
+        <v>30</v>
+      </c>
+      <c r="R79" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.5">
@@ -3090,7 +3146,7 @@
         <v>epsh:P80</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
         <v>162</v>
@@ -3099,43 +3155,43 @@
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A81" t="str">
+        <f t="shared" si="5"/>
+        <v>epsh:P81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="T82" s="18"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A83" t="str">
-        <f t="shared" ref="A83:A94" si="6">CONCATENATE("epsh:P",ROW(A83))</f>
-        <v>epsh:P83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" t="s">
-        <v>163</v>
-      </c>
-      <c r="G83" s="1">
-        <v>1</v>
-      </c>
-      <c r="L83" t="s">
-        <v>74</v>
-      </c>
-      <c r="M83" t="s">
-        <v>75</v>
-      </c>
+      <c r="T83" s="18"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A84:A95" si="6">CONCATENATE("epsh:P",ROW(A84))</f>
         <v>epsh:P84</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
         <v>163</v>
@@ -3144,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>30</v>
-      </c>
-      <c r="R84" s="20" t="s">
-        <v>127</v>
+        <v>74</v>
+      </c>
+      <c r="M84" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.5">
@@ -3156,7 +3212,7 @@
         <v>epsh:P85</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" t="s">
         <v>163</v>
@@ -3165,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>74</v>
-      </c>
-      <c r="M85" t="s">
-        <v>93</v>
+        <v>30</v>
+      </c>
+      <c r="R85" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.5">
@@ -3177,7 +3233,7 @@
         <v>epsh:P86</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
         <v>163</v>
@@ -3185,14 +3241,11 @@
       <c r="G86" s="1">
         <v>1</v>
       </c>
-      <c r="J86" t="s">
-        <v>172</v>
-      </c>
       <c r="L86" t="s">
-        <v>30</v>
-      </c>
-      <c r="R86" t="s">
-        <v>166</v>
+        <v>74</v>
+      </c>
+      <c r="M86" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.5">
@@ -3201,7 +3254,7 @@
         <v>epsh:P87</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
         <v>163</v>
@@ -3209,42 +3262,45 @@
       <c r="G87" s="1">
         <v>1</v>
       </c>
+      <c r="J87" t="s">
+        <v>172</v>
+      </c>
       <c r="L87" t="s">
         <v>30</v>
       </c>
       <c r="R87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A88" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>30</v>
+      </c>
+      <c r="R88" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A89" s="17" t="s">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="T89" s="18"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A90" t="str">
-        <f t="shared" si="6"/>
-        <v>epsh:P90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" t="s">
-        <v>172</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1</v>
-      </c>
-      <c r="L90" t="s">
-        <v>74</v>
-      </c>
-      <c r="M90" t="s">
-        <v>93</v>
-      </c>
+      <c r="T90" s="18"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A91" t="str">
@@ -3252,7 +3308,7 @@
         <v>epsh:P91</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
         <v>172</v>
@@ -3261,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>30</v>
-      </c>
-      <c r="R91" s="20" t="s">
-        <v>174</v>
+        <v>74</v>
+      </c>
+      <c r="M91" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.5">
@@ -3273,7 +3329,7 @@
         <v>epsh:P92</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
         <v>172</v>
@@ -3281,14 +3337,11 @@
       <c r="G92" s="1">
         <v>1</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
       <c r="L92" t="s">
-        <v>74</v>
-      </c>
-      <c r="M92" t="s">
-        <v>173</v>
+        <v>30</v>
+      </c>
+      <c r="R92" s="20" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.5">
@@ -3297,7 +3350,7 @@
         <v>epsh:P93</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
         <v>172</v>
@@ -3321,7 +3374,7 @@
         <v>epsh:P94</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
         <v>172</v>
@@ -3339,49 +3392,49 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A96" s="17" t="s">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A95" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>74</v>
+      </c>
+      <c r="M95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="T96" s="18"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A97" t="str">
-        <f t="shared" ref="A97:A99" si="7">CONCATENATE("epsh:P",ROW(A97))</f>
-        <v>epsh:P97</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="T97" s="18"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A98" t="str">
+        <f t="shared" ref="A98:A100" si="7">CONCATENATE("epsh:P",ROW(A98))</f>
+        <v>epsh:P98</v>
+      </c>
+      <c r="B98" t="s">
         <v>137</v>
-      </c>
-      <c r="C97" t="s">
-        <v>132</v>
-      </c>
-      <c r="D97" s="1">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="L97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A98" t="str">
-        <f t="shared" si="7"/>
-        <v>epsh:P98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>138</v>
       </c>
       <c r="C98" t="s">
         <v>132</v>
       </c>
       <c r="D98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3393,25 +3446,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A99" t="str">
         <f t="shared" si="7"/>
         <v>epsh:P99</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
         <v>132</v>
       </c>
       <c r="D99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A100" t="str">
+        <f t="shared" si="7"/>
+        <v>epsh:P100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="1">
         <v>3</v>
       </c>
-      <c r="G99"/>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="L99" t="s">
+      <c r="G100"/>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3429,32 +3506,31 @@
     <hyperlink ref="R22" r:id="rId10" display="http://data.europarl.europa.eu/authority/activity-stage/.*$"/>
     <hyperlink ref="R24" r:id="rId11" display="http://data.europarl.europa.eu/authority/legislative-process-status/.*$"/>
     <hyperlink ref="C7" r:id="rId12" display="http://data.europa.eu/eli/eli-draft-legislation-ontology"/>
-    <hyperlink ref="R33" r:id="rId13"/>
-    <hyperlink ref="R49" r:id="rId14"/>
-    <hyperlink ref="R50" r:id="rId15"/>
-    <hyperlink ref="R51" r:id="rId16"/>
-    <hyperlink ref="R52" r:id="rId17"/>
-    <hyperlink ref="R40" r:id="rId18"/>
-    <hyperlink ref="R48" r:id="rId19"/>
-    <hyperlink ref="R70" r:id="rId20"/>
-    <hyperlink ref="R36" r:id="rId21" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R37" r:id="rId22" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R54" r:id="rId23" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R58" r:id="rId24" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R55" r:id="rId25" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R64" r:id="rId26"/>
-    <hyperlink ref="R45" r:id="rId27" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R61" r:id="rId28" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R56:R57" r:id="rId29" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R78" r:id="rId30"/>
-    <hyperlink ref="R84" r:id="rId31"/>
-    <hyperlink ref="R86" r:id="rId32" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R87" r:id="rId33" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R91" r:id="rId34" display="http://data.europarl.europa.eu/authority/activity-stage/.*$"/>
-    <hyperlink ref="R25" r:id="rId35" display="http://data.europarl.europa.eu/resource/eli/dl/[a-zA-Z]/[A-Z]?[0-9]?[0-9][0-9][0-9][0-9]?[0-9][0-9]?[0-9][0-9]/.*$"/>
+    <hyperlink ref="R34" r:id="rId13"/>
+    <hyperlink ref="R50" r:id="rId14"/>
+    <hyperlink ref="R51" r:id="rId15"/>
+    <hyperlink ref="R52" r:id="rId16"/>
+    <hyperlink ref="R53" r:id="rId17"/>
+    <hyperlink ref="R41" r:id="rId18"/>
+    <hyperlink ref="R49" r:id="rId19"/>
+    <hyperlink ref="R71" r:id="rId20"/>
+    <hyperlink ref="R37" r:id="rId21" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R38" r:id="rId22" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R55" r:id="rId23" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R59" r:id="rId24" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R56" r:id="rId25" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R65" r:id="rId26"/>
+    <hyperlink ref="R46" r:id="rId27" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R62" r:id="rId28" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R57:R58" r:id="rId29" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R79" r:id="rId30"/>
+    <hyperlink ref="R85" r:id="rId31"/>
+    <hyperlink ref="R87" r:id="rId32" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R88" r:id="rId33" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R92" r:id="rId34" display="http://data.europarl.europa.eu/authority/activity-stage/.*$"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId36"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/EXPORT-PROC-Shapes.xlsx
+++ b/Subtask5/03-eli-dl-ap-ep-activities/04-SHACL/EXPORT-PROC-Shapes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="190">
   <si>
     <t>Shapes URI</t>
   </si>
@@ -340,9 +340,6 @@
     <t>eli-dl:had_legal_basis</t>
   </si>
   <si>
-    <t>eli-dl:LegislativeActivity</t>
-  </si>
-  <si>
     <t>rdfs:Literal</t>
   </si>
   <si>
@@ -373,6 +370,9 @@
     <t>eli-dl:latest_activity</t>
   </si>
   <si>
+    <t>elidl-ep:hasActivityParticipation</t>
+  </si>
+  <si>
     <t>eli-dl:consists_of</t>
   </si>
   <si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>"^http://data.europarl.europa.eu/authority/legislative-process-status/.*$"</t>
-  </si>
-  <si>
-    <t>epsh:Procedure_creation</t>
   </si>
   <si>
     <t>Constraints on Procedure_creation</t>
@@ -514,15 +511,6 @@
     </r>
   </si>
   <si>
-    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9]{4}+/[0-9a-zA-Z]+/event/.*$"</t>
-  </si>
-  <si>
-    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9]{4}+/[0-9a-zA-Z]+/event/reading_.+/.*$"</t>
-  </si>
-  <si>
-    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9]{4}+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$</t>
-  </si>
-  <si>
     <t>Constraints on app-rapporteur</t>
   </si>
   <si>
@@ -541,9 +529,6 @@
     <t>Constraints on CommitteeVote</t>
   </si>
   <si>
-    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9]{4}+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*/result$</t>
-  </si>
-  <si>
     <t>elidl-ep:voteDate</t>
   </si>
   <si>
@@ -559,18 +544,12 @@
     <t>elidl-ep:voteAgainst</t>
   </si>
   <si>
-    <t>epsh:Vote</t>
-  </si>
-  <si>
     <t>xsd:integer</t>
   </si>
   <si>
     <t>"^http://data.europarl.europa.eu/authority/vote-result/.*$"</t>
   </si>
   <si>
-    <t>Constraints on Vote</t>
-  </si>
-  <si>
     <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/.*$"</t>
   </si>
   <si>
@@ -587,6 +566,51 @@
   </si>
   <si>
     <t>"^http://data.europa.eu/resource/eli/treaty/[a-zA-Z]+_[0-9]+/[a-zA-Z]+_[0-9]+/oj$"</t>
+  </si>
+  <si>
+    <t>epsh:Procedure_Creation</t>
+  </si>
+  <si>
+    <t>eli-dl:based_on_a_realization_of</t>
+  </si>
+  <si>
+    <t>elidl-ep:hasBaseBas_1</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/doc/[a-zA-Z0-9]*+/.*$"</t>
+  </si>
+  <si>
+    <t>epsh:InvolvedWork</t>
+  </si>
+  <si>
+    <t>Constraints on CommitteeDebate</t>
+  </si>
+  <si>
+    <t>epsh:CommitteDebate</t>
+  </si>
+  <si>
+    <t>elidl-ep:hasOtherAme</t>
+  </si>
+  <si>
+    <t>epsh:VoteResult</t>
+  </si>
+  <si>
+    <t>Constraints on Vote Result</t>
+  </si>
+  <si>
+    <t>epsh:ActivityParticipationProcess</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/.*$"</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*$</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/event/reading_.+/main-dossier_.+/.*/result$</t>
+  </si>
+  <si>
+    <t>"^http://data.europarl.europa.eu/resource/eli/dl/proc/[0-9]{4}+/[0-9a-zA-Z]*+/[0-9a-zA-Z]+/.*$"</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -1157,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
@@ -1178,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>79</v>
@@ -1204,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>80</v>
@@ -1217,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>81</v>
@@ -1230,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1361,15 +1385,12 @@
       <c r="C15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>31</v>
@@ -1386,15 +1407,12 @@
         <v>29</v>
       </c>
       <c r="C16"/>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>31</v>
@@ -1405,21 +1423,18 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17"/>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>31</v>
@@ -1436,15 +1451,12 @@
         <v>29</v>
       </c>
       <c r="C18"/>
-      <c r="F18" s="1">
-        <v>4</v>
-      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>31</v>
@@ -1455,21 +1467,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19"/>
-      <c r="F19" s="1">
-        <v>5</v>
-      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>31</v>
@@ -1480,20 +1489,18 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="1">
-        <v>7</v>
-      </c>
+      <c r="C20"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>31</v>
@@ -1504,20 +1511,17 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="1">
-        <v>8</v>
-      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>31</v>
@@ -1528,20 +1532,17 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="1">
-        <v>9</v>
-      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>31</v>
@@ -1552,20 +1553,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="1">
-        <v>10</v>
-      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>31</v>
@@ -1576,20 +1574,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="1">
-        <v>11</v>
-      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>31</v>
@@ -1600,41 +1595,101 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="I27" t="s">
-        <v>181</v>
-      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="I28" t="s">
-        <v>155</v>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1651,15 +1706,17 @@
     <hyperlink ref="I15" r:id="rId10" display="http://data.europarl.europa.eu/resource/eli"/>
     <hyperlink ref="I18" r:id="rId11" display="http://data.europarl.europa.eu/resource/eli"/>
     <hyperlink ref="I17" r:id="rId12" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="I19" r:id="rId13" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="I20" r:id="rId14" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="I21" r:id="rId15" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="I22" r:id="rId16" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="I23" r:id="rId17" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="I24" r:id="rId18" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I20" r:id="rId13" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I21" r:id="rId14" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I22" r:id="rId15" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I23" r:id="rId16" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I25" r:id="rId17" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I26" r:id="rId18" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I24" r:id="rId19" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="I19" r:id="rId20" display="http://data.europarl.europa.eu/resource/eli"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -1669,11 +1726,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6796875" defaultRowHeight="12.5" x14ac:dyDescent="0.5"/>
@@ -1703,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
@@ -1725,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>79</v>
@@ -1751,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>80</v>
@@ -1764,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>81</v>
@@ -1777,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2"/>
       <c r="Q7" s="1"/>
@@ -1956,7 +2013,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:A29" si="0">CONCATENATE("epsh:P",ROW(A14))</f>
+        <f t="shared" ref="A14:A31" si="0">CONCATENATE("epsh:P",ROW(A14))</f>
         <v>epsh:P14</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -2251,10 +2308,7 @@
         <v>30</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="R25" s="25"/>
     </row>
@@ -2273,10 +2327,7 @@
         <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>179</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="R26" s="25"/>
     </row>
@@ -2286,13 +2337,13 @@
         <v>epsh:P27</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
         <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -2307,7 +2358,7 @@
         <v>31</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.5">
@@ -2316,7 +2367,7 @@
         <v>epsh:P28</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -2342,21 +2393,56 @@
       <c r="C29" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
         <v>134</v>
       </c>
-      <c r="L29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" ref="N29" si="1">LEFT(M29,1)</f>
-        <v/>
-      </c>
       <c r="R29" t="s">
-        <v>176</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>epsh:P30</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>175</v>
+      </c>
+      <c r="R30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>epsh:P31</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>185</v>
+      </c>
+      <c r="R31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -2367,7 +2453,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A34" t="str">
-        <f t="shared" ref="A34:A59" si="2">CONCATENATE("epsh:P",ROW(A34))</f>
+        <f t="shared" ref="A34:A62" si="1">CONCATENATE("epsh:P",ROW(A34))</f>
         <v>epsh:P34</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -2388,7 +2474,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P35</v>
       </c>
       <c r="B35" s="24" t="s">
@@ -2412,7 +2498,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P36</v>
       </c>
       <c r="B36" s="24" t="s">
@@ -2436,7 +2522,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P37</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -2445,22 +2531,22 @@
       <c r="C37" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
         <v>144</v>
       </c>
-      <c r="L37" t="s">
-        <v>30</v>
+      <c r="O37" s="1">
+        <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P38</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -2469,153 +2555,152 @@
       <c r="C38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>150</v>
-      </c>
       <c r="L38" t="s">
         <v>30</v>
       </c>
+      <c r="N38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
       <c r="R38" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="B39" s="24"/>
-    </row>
-    <row r="40" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="T40" s="18"/>
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>epsh:P39</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" t="s">
+        <v>171</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>epsh:P40</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>179</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="T43" s="18"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v>epsh:P44</v>
+      </c>
+      <c r="B44" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>30</v>
-      </c>
-      <c r="R41" s="20" t="s">
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A42" t="str">
-        <f t="shared" si="2"/>
-        <v>epsh:P42</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>epsh:P45</v>
+      </c>
+      <c r="B45" t="s">
         <v>119</v>
       </c>
-      <c r="C42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
         <v>74</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M45" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="17" t="s">
+    <row r="48" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="T45" s="18"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A46" t="str">
-        <f>CONCATENATE("epsh:P",ROW(A46))</f>
-        <v>epsh:P46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>30</v>
-      </c>
-      <c r="R46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A47" t="str">
-        <f>CONCATENATE("epsh:P",ROW(A47))</f>
-        <v>epsh:P47</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>74</v>
-      </c>
-      <c r="M47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A48" t="str">
-        <f t="shared" si="2"/>
-        <v>epsh:P48</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>74</v>
-      </c>
-      <c r="M48" t="s">
-        <v>93</v>
-      </c>
-      <c r="R48" s="20"/>
+      <c r="T48" s="18"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A49" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("epsh:P",ROW(A49))</f>
         <v>epsh:P49</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
         <v>144</v>
@@ -2623,20 +2708,23 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
       <c r="L49" t="s">
-        <v>30</v>
-      </c>
-      <c r="R49" s="20" t="s">
-        <v>127</v>
+        <v>74</v>
+      </c>
+      <c r="M49" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P50</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
         <v>144</v>
@@ -2644,23 +2732,21 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
       <c r="L50" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" s="20" t="s">
-        <v>128</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M50" t="s">
+        <v>93</v>
+      </c>
+      <c r="R50" s="20"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P51</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
         <v>144</v>
@@ -2668,23 +2754,20 @@
       <c r="G51" s="1">
         <v>1</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
       <c r="L51" t="s">
         <v>30</v>
       </c>
       <c r="R51" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P52</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
         <v>144</v>
@@ -2699,16 +2782,16 @@
         <v>30</v>
       </c>
       <c r="R52" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P53</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
         <v>144</v>
@@ -2716,41 +2799,47 @@
       <c r="G53" s="1">
         <v>1</v>
       </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
       <c r="L53" t="s">
         <v>30</v>
       </c>
       <c r="R53" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P54</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
         <v>144</v>
       </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>74</v>
-      </c>
-      <c r="M54" t="s">
-        <v>93</v>
+        <v>30</v>
+      </c>
+      <c r="R54" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P55</v>
       </c>
-      <c r="B55" t="s">
-        <v>117</v>
+      <c r="B55" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="C55" t="s">
         <v>144</v>
@@ -2758,43 +2847,37 @@
       <c r="G55" s="1">
         <v>1</v>
       </c>
-      <c r="J55" t="s">
-        <v>152</v>
-      </c>
       <c r="L55" t="s">
         <v>30</v>
       </c>
-      <c r="R55" t="s">
-        <v>159</v>
+      <c r="R55" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P56</v>
       </c>
-      <c r="B56" t="s">
-        <v>117</v>
+      <c r="B56" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="C56" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>161</v>
+      <c r="H56">
+        <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>30</v>
-      </c>
-      <c r="R56" t="s">
-        <v>159</v>
+        <v>74</v>
+      </c>
+      <c r="M56" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P57</v>
       </c>
       <c r="B57" t="s">
@@ -2803,22 +2886,22 @@
       <c r="C57" t="s">
         <v>144</v>
       </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>162</v>
-      </c>
       <c r="L57" t="s">
         <v>30</v>
       </c>
+      <c r="N57" t="s">
+        <v>151</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
       <c r="R57" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P58</v>
       </c>
       <c r="B58" t="s">
@@ -2827,62 +2910,101 @@
       <c r="C58" t="s">
         <v>144</v>
       </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>163</v>
-      </c>
       <c r="L58" t="s">
         <v>30</v>
       </c>
+      <c r="N58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
       <c r="R58" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>epsh:P59</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
         <v>144</v>
       </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>132</v>
-      </c>
       <c r="L59" t="s">
         <v>30</v>
       </c>
+      <c r="N59" t="s">
+        <v>158</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
       <c r="R59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A60" t="str">
+        <f t="shared" si="1"/>
+        <v>epsh:P60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="L60" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>181</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="R60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A61" t="str">
+        <f t="shared" si="1"/>
+        <v>epsh:P61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="L61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C60"/>
-    </row>
-    <row r="61" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="T61" s="18"/>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A62" t="str">
-        <f t="shared" ref="A62:A66" si="3">CONCATENATE("epsh:P",ROW(A62))</f>
+        <f t="shared" si="1"/>
         <v>epsh:P62</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -2890,83 +3012,56 @@
       <c r="L62" t="s">
         <v>30</v>
       </c>
+      <c r="N62" t="s">
+        <v>132</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
       <c r="R62" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A63" t="str">
-        <f t="shared" si="3"/>
-        <v>epsh:P63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" t="s">
-        <v>161</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>74</v>
-      </c>
-      <c r="M63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A64" t="str">
-        <f t="shared" si="3"/>
-        <v>epsh:P64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-      <c r="L64" t="s">
-        <v>74</v>
-      </c>
-      <c r="M64" t="s">
-        <v>75</v>
-      </c>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="T64" s="18"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A65:A68" si="2">CONCATENATE("epsh:P",ROW(A65))</f>
         <v>epsh:P65</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>30</v>
-      </c>
-      <c r="R65" s="20" t="s">
-        <v>127</v>
+        <v>74</v>
+      </c>
+      <c r="M65" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>epsh:P66</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -2975,73 +3070,73 @@
         <v>74</v>
       </c>
       <c r="M66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A67" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>30</v>
+      </c>
+      <c r="R67" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A68" t="str">
+        <f t="shared" si="2"/>
+        <v>epsh:P68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>74</v>
+      </c>
+      <c r="M68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="T69" s="18"/>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C69"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A70" t="str">
-        <f t="shared" ref="A70:A74" si="4">CONCATENATE("epsh:P",ROW(A70))</f>
-        <v>epsh:P70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G70" s="1">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="L70" t="s">
-        <v>74</v>
-      </c>
-      <c r="M70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A71" t="str">
-        <f t="shared" si="4"/>
-        <v>epsh:P71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" t="s">
-        <v>152</v>
-      </c>
-      <c r="L71" t="s">
-        <v>30</v>
-      </c>
-      <c r="R71" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="T71" s="18"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A72:A76" si="3">CONCATENATE("epsh:P",ROW(A72))</f>
         <v>epsh:P72</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -3053,103 +3148,109 @@
         <v>74</v>
       </c>
       <c r="M72" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>epsh:P73</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L73" t="s">
         <v>30</v>
+      </c>
+      <c r="R73" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>epsh:P74</v>
       </c>
       <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>74</v>
+      </c>
+      <c r="M74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A75" t="str">
+        <f t="shared" si="3"/>
+        <v>epsh:P75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+      <c r="L75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A76" t="str">
+        <f t="shared" si="3"/>
+        <v>epsh:P76</v>
+      </c>
+      <c r="B76" t="s">
         <v>141</v>
       </c>
-      <c r="C74" t="s">
-        <v>152</v>
-      </c>
-      <c r="L74" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C75"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C76"/>
-    </row>
-    <row r="77" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="T77" s="18"/>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>30</v>
+      </c>
+      <c r="R76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C77"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A78" t="str">
-        <f t="shared" ref="A78:A81" si="5">CONCATENATE("epsh:P",ROW(A78))</f>
-        <v>epsh:P78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" t="s">
-        <v>162</v>
-      </c>
-      <c r="G78" s="1">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
-        <v>74</v>
-      </c>
-      <c r="M78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A79" t="str">
-        <f t="shared" si="5"/>
-        <v>epsh:P79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" t="s">
-        <v>162</v>
-      </c>
-      <c r="G79" s="1">
-        <v>1</v>
-      </c>
-      <c r="L79" t="s">
-        <v>30</v>
-      </c>
-      <c r="R79" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="T79" s="18"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A80:A84" si="4">CONCATENATE("epsh:P",ROW(A80))</f>
         <v>epsh:P80</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -3158,130 +3259,127 @@
         <v>74</v>
       </c>
       <c r="M80" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>epsh:P81</v>
       </c>
       <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>158</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>30</v>
+      </c>
+      <c r="R81" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A82" t="str">
+        <f t="shared" si="4"/>
+        <v>epsh:P82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>74</v>
+      </c>
+      <c r="M82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A83" t="str">
+        <f t="shared" si="4"/>
+        <v>epsh:P83</v>
+      </c>
+      <c r="B83" t="s">
         <v>141</v>
       </c>
-      <c r="C81" t="s">
-        <v>162</v>
-      </c>
-      <c r="G81" s="1">
-        <v>1</v>
-      </c>
-      <c r="L81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="T83" s="18"/>
+      <c r="C83" t="s">
+        <v>158</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>30</v>
+      </c>
+      <c r="R83" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A84" t="str">
-        <f t="shared" ref="A84:A95" si="6">CONCATENATE("epsh:P",ROW(A84))</f>
+        <f t="shared" si="4"/>
         <v>epsh:P84</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
-      </c>
-      <c r="G84" s="1">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="L84" t="s">
-        <v>74</v>
-      </c>
-      <c r="M84" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A85" t="str">
-        <f t="shared" si="6"/>
-        <v>epsh:P85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" t="s">
-        <v>163</v>
-      </c>
-      <c r="G85" s="1">
-        <v>1</v>
-      </c>
-      <c r="L85" t="s">
-        <v>30</v>
-      </c>
-      <c r="R85" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A86" t="str">
-        <f t="shared" si="6"/>
-        <v>epsh:P86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" t="s">
-        <v>163</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1</v>
-      </c>
-      <c r="L86" t="s">
-        <v>74</v>
-      </c>
-      <c r="M86" t="s">
-        <v>93</v>
-      </c>
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="T86" s="18"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A87:A89" si="5">CONCATENATE("epsh:P",ROW(A87))</f>
         <v>epsh:P87</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
       </c>
-      <c r="J87" t="s">
-        <v>172</v>
-      </c>
       <c r="L87" t="s">
-        <v>30</v>
-      </c>
-      <c r="R87" t="s">
-        <v>166</v>
+        <v>74</v>
+      </c>
+      <c r="M87" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>epsh:P88</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -3289,83 +3387,59 @@
       <c r="L88" t="s">
         <v>30</v>
       </c>
-      <c r="R88" t="s">
-        <v>158</v>
+      <c r="R88" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="T90" s="18"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A91" t="str">
-        <f t="shared" si="6"/>
-        <v>epsh:P91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C91" t="s">
-        <v>172</v>
-      </c>
-      <c r="G91" s="1">
-        <v>1</v>
-      </c>
-      <c r="L91" t="s">
+      <c r="A89" t="str">
+        <f t="shared" si="5"/>
+        <v>epsh:P89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
         <v>74</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M89" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A92" t="str">
-        <f t="shared" si="6"/>
-        <v>epsh:P92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>168</v>
-      </c>
-      <c r="C92" t="s">
-        <v>172</v>
-      </c>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
-      <c r="L92" t="s">
-        <v>30</v>
-      </c>
-      <c r="R92" s="20" t="s">
-        <v>174</v>
-      </c>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="C90"/>
+    </row>
+    <row r="92" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="T92" s="18"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A93:A104" si="6">CONCATENATE("epsh:P",ROW(A93))</f>
         <v>epsh:P93</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G93" s="1">
-        <v>1</v>
-      </c>
-      <c r="H93">
         <v>1</v>
       </c>
       <c r="L93" t="s">
         <v>74</v>
       </c>
       <c r="M93" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.5">
@@ -3374,22 +3448,19 @@
         <v>epsh:P94</v>
       </c>
       <c r="B94" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
       </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
       <c r="L94" t="s">
-        <v>74</v>
-      </c>
-      <c r="M94" t="s">
-        <v>173</v>
+        <v>30</v>
+      </c>
+      <c r="R94" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.5">
@@ -3398,97 +3469,262 @@
         <v>epsh:P95</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G95" s="1">
-        <v>1</v>
-      </c>
-      <c r="H95">
         <v>1</v>
       </c>
       <c r="L95" t="s">
         <v>74</v>
       </c>
       <c r="M95" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="T97" s="18"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A96" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>183</v>
+      </c>
+      <c r="L96" t="s">
+        <v>30</v>
+      </c>
+      <c r="R96" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A97" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" t="s">
+        <v>159</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>30</v>
+      </c>
+      <c r="R97" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A98" t="str">
-        <f t="shared" ref="A98:A100" si="7">CONCATENATE("epsh:P",ROW(A98))</f>
-        <v>epsh:P98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>137</v>
-      </c>
-      <c r="C98" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="L98" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A99" t="str">
-        <f t="shared" si="7"/>
-        <v>epsh:P99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" t="s">
-        <v>132</v>
-      </c>
-      <c r="D99" s="1">
-        <v>2</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="L99" t="s">
-        <v>30</v>
-      </c>
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="T99" s="18"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A100" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" t="s">
+        <v>183</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>74</v>
+      </c>
+      <c r="M100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A101" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
+        <v>183</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>30</v>
+      </c>
+      <c r="R101" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A102" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" t="s">
+        <v>183</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>74</v>
+      </c>
+      <c r="M102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A103" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" t="s">
+        <v>183</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>74</v>
+      </c>
+      <c r="M103" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A104" t="str">
+        <f t="shared" si="6"/>
+        <v>epsh:P104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" t="s">
+        <v>183</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>74</v>
+      </c>
+      <c r="M104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="T106" s="18"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A107" t="str">
+        <f t="shared" ref="A107:A109" si="7">CONCATENATE("epsh:P",ROW(A107))</f>
+        <v>epsh:P107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A108" t="str">
         <f t="shared" si="7"/>
-        <v>epsh:P100</v>
-      </c>
-      <c r="B100" t="s">
+        <v>epsh:P108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A109" t="str">
+        <f t="shared" si="7"/>
+        <v>epsh:P109</v>
+      </c>
+      <c r="B109" t="s">
         <v>139</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C109" t="s">
         <v>132</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D109" s="1">
         <v>3</v>
       </c>
-      <c r="G100"/>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="G109"/>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3507,30 +3743,26 @@
     <hyperlink ref="R24" r:id="rId11" display="http://data.europarl.europa.eu/authority/legislative-process-status/.*$"/>
     <hyperlink ref="C7" r:id="rId12" display="http://data.europa.eu/eli/eli-draft-legislation-ontology"/>
     <hyperlink ref="R34" r:id="rId13"/>
-    <hyperlink ref="R50" r:id="rId14"/>
-    <hyperlink ref="R51" r:id="rId15"/>
-    <hyperlink ref="R52" r:id="rId16"/>
-    <hyperlink ref="R53" r:id="rId17"/>
-    <hyperlink ref="R41" r:id="rId18"/>
-    <hyperlink ref="R49" r:id="rId19"/>
-    <hyperlink ref="R71" r:id="rId20"/>
+    <hyperlink ref="R52" r:id="rId14"/>
+    <hyperlink ref="R53" r:id="rId15"/>
+    <hyperlink ref="R54" r:id="rId16"/>
+    <hyperlink ref="R55" r:id="rId17"/>
+    <hyperlink ref="R44" r:id="rId18"/>
+    <hyperlink ref="R51" r:id="rId19"/>
+    <hyperlink ref="R73" r:id="rId20"/>
     <hyperlink ref="R37" r:id="rId21" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R38" r:id="rId22" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R55" r:id="rId23" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R59" r:id="rId24" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R56" r:id="rId25" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R65" r:id="rId26"/>
-    <hyperlink ref="R46" r:id="rId27" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R62" r:id="rId28" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R57:R58" r:id="rId29" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R79" r:id="rId30"/>
-    <hyperlink ref="R85" r:id="rId31"/>
-    <hyperlink ref="R87" r:id="rId32" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R88" r:id="rId33" display="http://data.europarl.europa.eu/resource/eli"/>
-    <hyperlink ref="R92" r:id="rId34" display="http://data.europarl.europa.eu/authority/activity-stage/.*$"/>
+    <hyperlink ref="R57" r:id="rId22" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R31" r:id="rId23" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R58" r:id="rId24" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R67" r:id="rId25"/>
+    <hyperlink ref="R81" r:id="rId26"/>
+    <hyperlink ref="R94" r:id="rId27"/>
+    <hyperlink ref="R101" r:id="rId28" display="http://data.europarl.europa.eu/authority/activity-stage/.*$"/>
+    <hyperlink ref="R38:R39" r:id="rId29" display="http://data.europarl.europa.eu/resource/eli"/>
+    <hyperlink ref="R88" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
